--- a/4node_spain/output_all.xlsx
+++ b/4node_spain/output_all.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1580832623313029</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>2.686985391030896</v>
@@ -461,7 +461,7 @@
         <v>1.017724647956738</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8274378900505859</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.811380182930856</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>24.95997285721362</v>
+        <v>2.877272148937048</v>
       </c>
     </row>
   </sheetData>
@@ -914,41 +914,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v/>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F2" t="n">
         <v/>
       </c>
       <c r="G2" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -963,16 +963,16 @@
         <v/>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -982,17 +982,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v/>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -1001,24 +1001,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v/>
@@ -1030,17 +1030,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1050,10 +1050,10 @@
         <v/>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
         <v/>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1075,12 +1075,6 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
@@ -1104,15 +1098,6 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1133,15 +1118,6 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1159,17 +1135,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
       <c r="E10" t="n">
         <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
@@ -1188,23 +1155,14 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
       <c r="F11" t="n">
         <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1217,10 +1175,7 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>4.677888080783426e-08</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2105,7 +2060,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.394923765795405e-05</v>
+        <v>3.151378935926259e-16</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2084,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.577999999979511</v>
+        <v>1.98399999999674</v>
       </c>
     </row>
   </sheetData>

--- a/4node_spain/output_all.xlsx
+++ b/4node_spain/output_all.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.686985391030896</v>
+        <v>1.35427148362301</v>
       </c>
       <c r="C2" t="n">
-        <v>1.017724647956738</v>
+        <v>0.5399220128804783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8274378900505859</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.478308985051494</v>
+        <v>2.257119139371683</v>
       </c>
     </row>
     <row r="4">
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.696207746594563</v>
+        <v>0.8998700214674639</v>
       </c>
     </row>
     <row r="5">
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.478308985051494</v>
+        <v>2.257119139371683</v>
       </c>
       <c r="D5" t="n">
-        <v>1.696207746594563</v>
+        <v>0.8998700214674639</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.128085025845606e-10</v>
       </c>
     </row>
     <row r="3">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4718035927547759</v>
+        <v>0.2377944270450742</v>
       </c>
     </row>
     <row r="4">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4733943854983098</v>
+        <v>0.2511446015642362</v>
       </c>
     </row>
     <row r="5">
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4669327842386321</v>
+        <v>0.2353394836361445</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4693182307994794</v>
+        <v>0.2489821233704967</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9999999991871915</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5281964072452241</v>
+        <v>0.7622055729549257</v>
       </c>
     </row>
     <row r="4">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5266056145016902</v>
+        <v>0.7488553984357638</v>
       </c>
     </row>
     <row r="5">
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5330672157613678</v>
+        <v>0.7646605163638555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5306817692005206</v>
+        <v>0.7510178766295033</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,17 +914,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -937,18 +937,18 @@
         <v/>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4.064042512922803e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -966,27 +966,27 @@
         <v/>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4.064042512922803e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -995,52 +995,52 @@
         <v/>
       </c>
       <c r="G4" t="n">
-        <v/>
+        <v>4.064042512922803e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v/>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F5" t="n">
         <v/>
       </c>
       <c r="G5" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1050,10 +1050,10 @@
         <v/>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v/>
+        <v>1.423688050672329e-09</v>
       </c>
     </row>
     <row r="7">
@@ -1069,14 +1069,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>1.423688050672329e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1087,16 +1093,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9999999983211245</v>
       </c>
     </row>
     <row r="9">
@@ -1107,7 +1122,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1116,7 +1131,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>-2.678386409898293e-10</v>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1132,11 +1156,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3.133041357879711e-10</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -1152,11 +1185,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -1175,8 +1217,17 @@
           <t>i3</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>-2.678386409898293e-10</v>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
       <c r="F12" t="n">
         <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2111,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.151378935926259e-16</v>
+        <v>1.952074411148966e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2135,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.98399999999674</v>
+        <v>0.9530000000086147</v>
       </c>
     </row>
   </sheetData>

--- a/4node_spain/output_all.xlsx
+++ b/4node_spain/output_all.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,18 +449,58 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.001183285792159792</v>
       </c>
       <c r="B2" t="n">
-        <v>1.35427148362301</v>
+        <v>0.4613257385728005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5399220128804783</v>
+        <v>0.2240924011402907</v>
       </c>
       <c r="D2" t="n">
+        <v>0.5809271786130042</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.877272148937048</v>
+        <v>1.894193500200153</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,6 +599,31 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -570,12 +635,27 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.00178640640744647</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.001783378767856305</v>
       </c>
       <c r="E2" t="n">
+        <v>0.001183898155703645</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,16 +666,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.00178640640744647</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.001436737742693641</v>
       </c>
       <c r="E3" t="n">
-        <v>2.257119139371683</v>
+        <v>5.786744453957676</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -605,16 +700,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.001783378767856305</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.001436737742693641</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8998700214674639</v>
+        <v>2.257054535163327</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -624,15 +734,200 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.001183898155703645</v>
       </c>
       <c r="C5" t="n">
-        <v>2.257119139371683</v>
+        <v>5.786744453957676</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8998700214674639</v>
+        <v>2.257054535163327</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -647,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +971,31 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -684,16 +1004,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.133250158039101e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.885252856715616e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>8.128085025845606e-10</v>
+        <v>3.216680270641538e-08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -703,16 +1038,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.922883817237913e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.586830285963715e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2377944270450742</v>
+        <v>0.6048728099309462</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -722,16 +1072,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.057264179538247e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.576257995745043e-08</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2511446015642362</v>
+        <v>0.6259387893919607</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -741,15 +1106,200 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.887960878522302e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2353394836361445</v>
+        <v>0.6033018799960519</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2489821233704967</v>
+        <v>0.6243492946103157</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,7 +1314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,6 +1343,31 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -804,13 +1379,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9999988715822293</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9999999743282147</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999991871915</v>
+        <v>0.9999999678703371</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +1410,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9999980780802625</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9999999795129648</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7622055729549257</v>
+        <v>0.3951271874958084</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -839,16 +1444,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9999999863930806</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.999999994701398</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7488553984357638</v>
+        <v>0.3740612106886572</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -858,15 +1478,200 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9999999669753091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7646605163638555</v>
+        <v>0.3966981217902208</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7510178766295033</v>
+        <v>0.3756507059570794</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -881,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,6 +1715,31 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -924,20 +1754,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v/>
       </c>
       <c r="E2" t="n">
-        <v/>
+        <v>1.130359934884199e-06</v>
       </c>
       <c r="F2" t="n">
-        <v/>
+        <v>2.180096163118223e-09</v>
       </c>
       <c r="G2" t="n">
-        <v>4.064042512922803e-10</v>
+        <v>1.285912776615528e-09</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -953,20 +1798,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v/>
+        <v>-7.821018200645341e-10</v>
       </c>
       <c r="F3" t="n">
-        <v/>
+        <v>2.31383599072952e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>4.064042512922803e-10</v>
+        <v>9.93647551857571e-10</v>
       </c>
     </row>
     <row r="4">
@@ -977,7 +1822,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -989,19 +1834,19 @@
         <v/>
       </c>
       <c r="E4" t="n">
-        <v/>
+        <v>1.944456283064605e-09</v>
       </c>
       <c r="F4" t="n">
-        <v/>
+        <v>1.806203801209247e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>4.064042512922803e-10</v>
+        <v>2.815937368397368e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1011,84 +1856,99 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v/>
       </c>
       <c r="E5" t="n">
-        <v/>
+        <v>-1.113981000746614e-09</v>
       </c>
       <c r="F5" t="n">
-        <v/>
+        <v>1.136159042097678e-10</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3.633160191988136e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v/>
       </c>
       <c r="E6" t="n">
-        <v/>
+        <v>-1.909722460131686e-09</v>
       </c>
       <c r="F6" t="n">
-        <v/>
+        <v>1.418450209464326e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.423688050672329e-09</v>
+        <v>2.657956628717913e-11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v/>
       </c>
       <c r="E7" t="n">
-        <v/>
+        <v>-1.994666309637294e-09</v>
       </c>
       <c r="F7" t="n">
-        <v/>
+        <v>-1.017294801211529e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.423688050672329e-09</v>
+        <v>-3.016796538290493e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1098,26 +1958,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v/>
       </c>
       <c r="E8" t="n">
-        <v/>
+        <v>-8.466902198216715e-10</v>
       </c>
       <c r="F8" t="n">
-        <v/>
+        <v>-7.247394263906175e-10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999983211245</v>
+        <v>1.377932487301669e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1127,55 +1987,55 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-2.678386409898293e-10</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v/>
+        <v>-1.805702305595811e-09</v>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>-7.881660046501443e-10</v>
       </c>
       <c r="G9" t="n">
-        <v/>
+        <v>-3.13085490342694e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.133041357879711e-10</v>
+        <v>0.001</v>
       </c>
       <c r="E10" t="n">
-        <v/>
+        <v>-1.969282774021534e-09</v>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>-1.225050330603511e-09</v>
       </c>
       <c r="G10" t="n">
-        <v/>
+        <v>-2.148073381849708e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1185,26 +2045,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2.039912850064461e-09</v>
       </c>
       <c r="F11" t="n">
-        <v/>
+        <v>6.548477856816857e-10</v>
       </c>
       <c r="G11" t="n">
-        <v/>
+        <v>-4.684267142890377e-10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1214,94 +2077,130 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-2.678386409898293e-10</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v/>
+        <v>-1.946670266473304e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-8.626882173094486e-10</v>
       </c>
       <c r="G12" t="n">
-        <v/>
+        <v>-1.155162050450306e-09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.962824573175856e-09</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>-2.337946361755963e-10</v>
       </c>
       <c r="G13" t="n">
-        <v>7.276181869160868e-08</v>
+        <v>-1.117221662416432e-09</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.772488922849253e-09</v>
+      </c>
+      <c r="E14" t="n">
+        <v/>
       </c>
       <c r="F14" t="n">
+        <v>1.700978761974157e-10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.774983128490461e-11</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.991631884653814e-09</v>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.958933021484216e-11</v>
       </c>
       <c r="G15" t="n">
-        <v>7.276181869160868e-08</v>
+        <v>1.42368705459927e-07</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1310,24 +2209,27 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.969461084487876e-09</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.518724537916701e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999999272381814</v>
+        <v>6.052744532435794e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1336,61 +2238,85 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.918990694595347e-06</v>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v>9.603774473134038e-10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.348598190522572e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3.84477863252709e-09</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>1.310823370503369e-08</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.003049440579383e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.679524692723254e-09</v>
+      </c>
+      <c r="E19" t="n">
+        <v/>
+      </c>
+      <c r="F19" t="n">
+        <v>7.182303675841817e-11</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.60487187687988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1398,14 +2324,23 @@
           <t>i1</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>-1.844311040639616e-09</v>
+      </c>
+      <c r="E20" t="n">
+        <v/>
+      </c>
+      <c r="F20" t="n">
+        <v>-7.530519417238794e-10</v>
+      </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2.065450695300138e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1418,34 +2353,52 @@
           <t>i2</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>2.99437398116222e-09</v>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v>2.834923801175091e-10</v>
+      </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3.189816720409615e-11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>-1.950572919755257e-09</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-8.796291728178528e-10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.195670273066013e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1455,17 +2408,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.847241143924989e-09</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.06604266232075e-10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.062560199389526e-07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,45 +2437,60 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.796158908011704e-09</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>-4.080497997803701e-10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.074543595758517e-11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>-1.976441227984795e-09</v>
+      </c>
+      <c r="E25" t="n">
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.631953255907211e-10</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>8.347034549463173e-08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1521,19 +2498,43 @@
           <t>i2</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>-1.127900119597451e-09</v>
+      </c>
       <c r="E26" t="n">
+        <v>4.75010419301039e-11</v>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="n">
+        <v>4.136746146108768e-07</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1541,59 +2542,101 @@
           <t>i3</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>-8.781611470443551e-10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.208796738000738e-11</v>
+      </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G27" t="n">
+        <v>1.327196957059543e-11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-9.870741256845977e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.94219974038744e-10</v>
       </c>
       <c r="F28" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="n">
+        <v>1.555088379694713e-06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8.913787040254223e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>-6.799516884532416e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+      <c r="G29" t="n">
+        <v>6.363572916831121e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1601,39 +2644,57 @@
           <t>i3</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>1.510245612051456e-09</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.300482310092866e-10</v>
+      </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G30" t="n">
+        <v>2.474567430962187e-11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-7.649201077944253e-10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-9.297470185323743e-10</v>
+      </c>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>1.255690599995147e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1642,21 +2703,27 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2.447222447726305e-08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.533412864998892e-10</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G32" t="n">
+        <v>1.024954761417149e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1664,40 +2731,55 @@
           <t>i2</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>3.802553328401586e-09</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.307565298419195e-08</v>
+      </c>
       <c r="F33" t="n">
-        <v>8.243969985682484e-16</v>
+        <v/>
+      </c>
+      <c r="G33" t="n">
+        <v>1.245407832023538e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-1.209969624493823e-16</v>
+        <v>5.699952906543436e-10</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.057170089839423e-10</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.661338147750939e-16</v>
+        <v/>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6259365182044233</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1707,20 +2789,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>4.415996731814905e-10</v>
       </c>
       <c r="E35" t="n">
+        <v>-2.856375828291304e-10</v>
+      </c>
+      <c r="F35" t="n">
+        <v/>
+      </c>
+      <c r="G35" t="n">
+        <v>3.074642131801452e-07</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1730,10 +2821,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.032547780941426e-09</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-4.564096214939601e-10</v>
       </c>
       <c r="F36" t="n">
+        <v/>
+      </c>
+      <c r="G36" t="n">
+        <v>2.329901907069491e-07</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1754,9 +2857,18 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>-5.934422214278417e-10</v>
       </c>
       <c r="E37" t="n">
+        <v>-2.965852712779727e-10</v>
+      </c>
+      <c r="F37" t="n">
+        <v/>
+      </c>
+      <c r="G37" t="n">
+        <v>-4.701395149266653e-12</v>
+      </c>
+      <c r="K37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1777,15 +2889,18 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>-9.412752819774902e-10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>5.233957711058966e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>6.308752381714347e-07</v>
       </c>
       <c r="G38" t="n">
+        <v/>
+      </c>
+      <c r="L38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,16 +2921,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>-9.997437595900769e-10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2.039524683196126e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>1.263824693110594e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="40">
@@ -1835,13 +2950,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>1.203217163317904e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2.961577576155137e-11</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2.286765221653341e-11</v>
+      </c>
+      <c r="G40" t="n">
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -1861,16 +2979,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>-2.778602068295635e-10</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>1.017262427493125e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4.107330124591404e-07</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -1890,16 +3008,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>-2.112423695084533e-10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>1.380333411643842e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1.623733150559994e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -1919,13 +3037,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>-1.274538435449535e-10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>-2.121332836624017e-12</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>1.18625419498797e-11</v>
+      </c>
+      <c r="G43" t="n">
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -1945,16 +3066,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>-3.797673257975483e-10</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>1.40888054118954e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2.815806514964538e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="45">
@@ -1974,16 +3095,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>-1.68106798564298e-10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>6.240250711446365e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>4.001364833508293e-07</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -2003,13 +3124,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>4.466522037406231e-11</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>1.588768985857756e-11</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>1.35993525601515e-12</v>
+      </c>
+      <c r="G46" t="n">
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -2029,13 +3153,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2.592240251568509e-08</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>4.847635583384454e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>1.202409134979116e-06</v>
+      </c>
+      <c r="G47" t="n">
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -2055,12 +3182,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>5.08152759732347e-10</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0.6033009715943689</v>
       </c>
       <c r="F48" t="n">
+        <v>1.003466304029722e-06</v>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2081,12 +3226,2212 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>7.211848389195879e-10</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>4.229432034564147e-07</v>
       </c>
       <c r="F49" t="n">
+        <v>0.6243470870604253</v>
+      </c>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4882613456752318</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.124148921727369e-09</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.362881391275864e-09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1.44441064732415e-09</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6048883880204943</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.169078346572877e-09</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1.704298462624202e-09</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.073547819435349e-10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.6259998765508498</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4.349240784603085e-09</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.643346390372448e-09</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.049589720528776e-09</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>-6.230093488135793e-10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.555850622555182e-10</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.967635646812165e-10</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2.533214529446052e-09</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.540815174572112e-08</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.878540183878626e-09</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>-1.373909606300193e-09</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-7.662832971482339e-10</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.102614306290259e-09</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.721909869089723e-09</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.294542184152515e-09</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-5.447687695249798e-10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>-1.870531253964796e-09</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.425746164720618e-09</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-9.579159205061179e-10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>-1.428912638402723e-09</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-8.846350230630213e-10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-8.735889338602646e-10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>-7.133077086416803e-10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.638603611683952e-09</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.789108671791653e-10</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>-7.862913959876723e-10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.641073055666462e-09</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-6.462943828434336e-11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3.03367468152669e-10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.414472988075346e-09</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.171540539579428e-10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>-3.531636762430654e-10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.524813844424215e-09</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-4.37383800041629e-10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.934942720896159e-10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1.300435967482206e-09</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7.883105640824239e-10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>-2.324256447532e-10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-7.24930552788841e-10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-3.154066558360573e-10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>-4.491029372416746e-10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-1.618178276454135e-09</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-5.617699341654443e-10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>-1.721404879285544e-10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1.451348674444219e-09</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.184857991951561e-10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>-7.094185191468666e-11</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-6.895425020019935e-10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-5.017473056502874e-10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5.63484980109042e-09</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.277788444787766e-09</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.472767479979159e-09</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1.063646020919022e-10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-9.760256948155976e-10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.959451776334874e-10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2.876003915981927e-10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-8.175604272572657e-10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.441222868121283e-09</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,7 +5456,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.952074411148966e-08</v>
+        <v>6.581962053760455e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +5480,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9530000000086147</v>
+        <v>0.0089569</v>
       </c>
     </row>
   </sheetData>

--- a/4node_spain/output_all.xlsx
+++ b/4node_spain/output_all.xlsx
@@ -5480,7 +5480,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0089569</v>
+        <v>0.0087706</v>
       </c>
     </row>
   </sheetData>

--- a/4node_spain/output_all.xlsx
+++ b/4node_spain/output_all.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="s_level" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sh_level" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="a_level" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="f_level" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="fext_level" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="fij_level" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mip_opt_gap" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="solver_time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="a_level" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="f_level" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="fext_level" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fij_level" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="solver_time" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sh_level" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mip_opt_gap" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,16 +452,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>9.461542243273627e-08</v>
       </c>
       <c r="B2" t="n">
-        <v>1.35427148362301</v>
+        <v>1.331145815308453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5399220165771437</v>
+        <v>0.511042279104153</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.176614313066852</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,39 +484,101 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>i1</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>i4</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>1.711173756007756e-07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.049777682986309e-09</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.847902911326734e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.711173756007756e-07</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.894193500200153</v>
+      <c r="D3" t="n">
+        <v>7.043876027046637e-09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.218573043980729</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.049777682986309e-09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.043876027046637e-09</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8517350933034392</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.847902911326734e-09</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.218573043980729</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8517350933034392</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -567,16 +629,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-7.182747596701233e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1.311781585577876e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-8.297142295443649e-07</v>
       </c>
     </row>
     <row r="3">
@@ -586,16 +648,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.296608996310567e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1.712129766850978e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>2.257119139371683</v>
+        <v>0.2337334779828701</v>
       </c>
     </row>
     <row r="4">
@@ -605,16 +667,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.230849143776027e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-3.675066497788038e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8998700276285728</v>
+        <v>0.2377106570274512</v>
       </c>
     </row>
     <row r="5">
@@ -624,13 +686,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.000501306247514e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>2.257119139371683</v>
+        <v>0.2313199894487528</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8998700276285728</v>
+        <v>0.2356636293781805</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -687,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.000000071827476</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.000000131178159</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.00000082971423</v>
       </c>
     </row>
     <row r="3">
@@ -703,16 +765,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9999997703391004</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.000000171212977</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2377944270450742</v>
+        <v>0.7662665220171299</v>
       </c>
     </row>
     <row r="4">
@@ -722,16 +784,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.9999999967691509</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.00000036750665</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2511446016048638</v>
+        <v>0.7622893429725488</v>
       </c>
     </row>
     <row r="5">
@@ -741,13 +803,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999998999498694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2353394836361445</v>
+        <v>0.7686800105512472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248982125075194</v>
+        <v>0.7643363706218195</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -764,124 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7622055729549257</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7488553983951363</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7646605163638555</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.751017874924806</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,13 +876,13 @@
         <v/>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8.726090219531561e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>1.545464634929065e-11</v>
       </c>
       <c r="G2" t="n">
-        <v/>
+        <v>9.643914805693587e-12</v>
       </c>
     </row>
     <row r="3">
@@ -948,7 +893,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -960,13 +905,13 @@
         <v/>
       </c>
       <c r="E3" t="n">
-        <v/>
+        <v>-2.128112170000242e-12</v>
       </c>
       <c r="F3" t="n">
-        <v/>
+        <v>1.337288199974999e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7.228217838084551e-12</v>
       </c>
     </row>
     <row r="4">
@@ -977,7 +922,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -986,16 +931,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="E4" t="n">
-        <v/>
+        <v>1.146242662684104e-11</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1.304727746392255e-11</v>
       </c>
       <c r="G4" t="n">
-        <v/>
+        <v>1.366281596571486e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1006,25 +951,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v/>
       </c>
       <c r="E5" t="n">
-        <v/>
+        <v>-6.581710120186705e-12</v>
       </c>
       <c r="F5" t="n">
-        <v/>
+        <v>5.597566098422015e-13</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2.35472255055533e-12</v>
       </c>
     </row>
     <row r="6">
@@ -1035,25 +980,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v/>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>-1.208330503837422e-11</v>
       </c>
       <c r="F6" t="n">
-        <v/>
+        <v>1.134288430603933e-11</v>
       </c>
       <c r="G6" t="n">
-        <v/>
+        <v>1.58926621671895e-12</v>
       </c>
     </row>
     <row r="7">
@@ -1064,89 +1009,89 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v/>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>-1.306854861681642e-11</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>-6.305205208198616e-12</v>
       </c>
       <c r="G7" t="n">
-        <v/>
+        <v>-2.243256476223588e-13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="E8" t="n">
-        <v/>
+        <v>-4.004745901346734e-12</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>-4.895276318925951e-12</v>
       </c>
       <c r="G8" t="n">
-        <v/>
+        <v>6.522354671657967e-13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v/>
       </c>
       <c r="E9" t="n">
-        <v/>
+        <v>-1.006687999026715e-11</v>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>-4.73949458790786e-12</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>1.20785480885112e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1160,22 +1105,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v/>
+        <v>-1.276362589418606e-11</v>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>-8.014869037943348e-12</v>
       </c>
       <c r="G10" t="n">
-        <v/>
+        <v>1.723175335148596e-14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1185,171 +1130,171 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v/>
+        <v>1.058651179267336e-11</v>
       </c>
       <c r="F11" t="n">
-        <v/>
+        <v>4.335487523878537e-12</v>
       </c>
       <c r="G11" t="n">
-        <v/>
+        <v>-3.006956676518742e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v/>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>-1.23115719703639e-11</v>
       </c>
       <c r="F12" t="n">
-        <v/>
+        <v>-5.117716053850966e-12</v>
       </c>
       <c r="G12" t="n">
-        <v/>
+        <v>-7.132106494878137e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="E13" t="n">
-        <v/>
+        <v>-1.264468770641288e-11</v>
       </c>
       <c r="F13" t="n">
-        <v/>
+        <v>-4.905682519066041e-13</v>
       </c>
       <c r="G13" t="n">
-        <v/>
+        <v>-6.940162025426599e-12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>-1.184709091568125e-11</v>
       </c>
       <c r="E14" t="n">
         <v/>
       </c>
       <c r="F14" t="n">
-        <v/>
+        <v>4.715943585729591e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>-1.992452514787043e-12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>-1.353917273668773e-11</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v/>
+        <v>3.895064884869892e-13</v>
       </c>
       <c r="G15" t="n">
-        <v/>
+        <v>-7.627979381822406e-12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-1.332945986384284e-11</v>
       </c>
       <c r="E16" t="n">
         <v/>
       </c>
       <c r="F16" t="n">
-        <v/>
+        <v>-1.355342386441173e-12</v>
       </c>
       <c r="G16" t="n">
-        <v/>
+        <v>6.998920481855059e-12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1359,142 +1304,142 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>8.857953526764154e-09</v>
       </c>
       <c r="E17" t="n">
         <v/>
       </c>
       <c r="F17" t="n">
-        <v/>
+        <v>5.958182433463654e-12</v>
       </c>
       <c r="G17" t="n">
-        <v/>
+        <v>1.226133535356801e-11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2.513100752426707e-11</v>
       </c>
       <c r="E18" t="n">
         <v/>
       </c>
       <c r="F18" t="n">
-        <v/>
+        <v>6.72745784198696e-11</v>
       </c>
       <c r="G18" t="n">
-        <v/>
+        <v>2.824129195851685e-11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>-1.055825783084957e-11</v>
       </c>
       <c r="E19" t="n">
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="F19" t="n">
-        <v/>
+        <v>2.016628345819359e-12</v>
       </c>
       <c r="G19" t="n">
-        <v/>
+        <v>0.2337334774117008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v/>
+        <v>-1.220688284590168e-11</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F20" t="n">
-        <v/>
+        <v>-4.936638086872258e-12</v>
       </c>
       <c r="G20" t="n">
-        <v/>
+        <v>-5.767339177080663e-12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v/>
+        <v>2.356428833414193e-11</v>
       </c>
       <c r="E21" t="n">
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>1.664464431585633e-12</v>
       </c>
       <c r="G21" t="n">
-        <v/>
+        <v>1.473331015713303e-11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1504,17 +1449,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>-1.308187307832301e-11</v>
+      </c>
+      <c r="E22" t="n">
+        <v/>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.535045865420231e-12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.352367855829935e-12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1528,13 +1482,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>-1.206308936907169e-11</v>
+      </c>
+      <c r="E23" t="n">
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.51578588576615e-12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-9.11550759232787e-12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1547,14 +1510,23 @@
           <t>i2</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>-1.17171605740545e-11</v>
+      </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.135990661696615e-12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-8.924847108463744e-12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1567,8 +1539,713 @@
           <t>i3</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>-1.331630237773293e-11</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001</v>
+      </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>-1.221983358552408e-12</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.029497374101376e-11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-7.507506002057589e-12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.285927393551933e-13</v>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="n">
+        <v>7.711409848520115e-11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-6.159764720431537e-12</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.358610033005129e-13</v>
+      </c>
+      <c r="F27" t="n">
+        <v/>
+      </c>
+      <c r="G27" t="n">
+        <v>1.581255391163002e-12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.470874539932482e-12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.545708851660103e-12</v>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="n">
+        <v>3.142027426319749e-10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8.194834417433038e-12</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-4.115506343254878e-12</v>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+      <c r="G29" t="n">
+        <v>1.238704234705514e-10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9.911340078686961e-12</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.182758238540833e-12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.149309899677072e-12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.135324220603711e-12</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-5.400796238568728e-12</v>
+      </c>
+      <c r="F31" t="n">
+        <v/>
+      </c>
+      <c r="G31" t="n">
+        <v>2.809434818929645e-10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.361044284136812e-10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.34036415841896e-12</v>
+      </c>
+      <c r="F32" t="n">
+        <v/>
+      </c>
+      <c r="G32" t="n">
+        <v>2.130381946296876e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2.78955348428451e-11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.65904309729603e-11</v>
+      </c>
+      <c r="F33" t="n">
+        <v/>
+      </c>
+      <c r="G33" t="n">
+        <v>2.90815871315953e-10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5.238643872260402e-12</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.136384730469382e-12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.237710629199407</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4.801135561109117e-12</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.377834930787951e-12</v>
+      </c>
+      <c r="F35" t="n">
+        <v/>
+      </c>
+      <c r="G35" t="n">
+        <v>5.598947840811241e-11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-6.417178565285595e-12</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1.685455227361958e-12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.003324546198943e-11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>-3.75151188405401e-12</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.746830201540927e-12</v>
+      </c>
+      <c r="F37" t="n">
+        <v/>
+      </c>
+      <c r="G37" t="n">
+        <v>-1.089301807709927e-13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>-5.631283108437893e-12</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.111901281807404e-14</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.167780183260986e-10</v>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-6.150031119227631e-12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-6.881034363144e-12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.486417181118933e-10</v>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3.067128974313123e-13</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.410595278004329e-11</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.664288386501229e-12</v>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.677350881588113e-13</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-9.761220142873531e-12</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.338415982373843e-11</v>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-1.013810497631085e-13</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-8.183187331110588e-12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.279880237280741e-10</v>
+      </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>-4.591599587843664e-13</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-7.500050927127907e-12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.499546017654861e-12</v>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>-1.238515354994881e-12</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-8.498521848351511e-12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.551347158300123e-11</v>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2.453666605388866e-13</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.203722336791239e-12</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7.13407273907787e-11</v>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1.523422776731173e-13</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-3.065672839237914e-12</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.117050061170284e-13</v>
+      </c>
+      <c r="G46" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1.255908401086748e-10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.554577942045487e-11</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.491863934178297e-10</v>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4.657640351243549e-12</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2313204585162844</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.147529838525925e-10</v>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5.410605752195759e-12</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7.703749342931491e-12</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2356638257012487</v>
+      </c>
+      <c r="G49" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +2253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1592,7 +2269,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4.500066892302265e-05</v>
+        <v>0.1590365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.011484586519129e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.212056125042771e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.72080862589569e-10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.665572712679147</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +2348,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>14</v>
+        <v>2.437860993662113e-15</v>
       </c>
     </row>
   </sheetData>

--- a/4node_spain/output_all.xlsx
+++ b/4node_spain/output_all.xlsx
@@ -452,16 +452,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.461542243273627e-08</v>
+        <v>8.870336419705509e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>1.331145815308453</v>
+        <v>1.328016901018055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.511042279104153</v>
+        <v>0.5144481827776213</v>
       </c>
       <c r="D2" t="n">
-        <v>1.176614313066852</v>
+        <v>1.178377716999204</v>
       </c>
     </row>
   </sheetData>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.711173756007756e-07</v>
+        <v>1.724404365356792e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>5.049777682986309e-09</v>
+        <v>9.871345059498339e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>3.847902911326734e-09</v>
+        <v>7.033013450984647e-07</v>
       </c>
     </row>
     <row r="3">
@@ -531,16 +531,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.711173756007756e-07</v>
+        <v>1.724404365356792e-05</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.043876027046637e-09</v>
+        <v>1.974535298499556e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>2.218573043980729</v>
+        <v>2.213103850403893</v>
       </c>
     </row>
     <row r="4">
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.049777682986309e-09</v>
+        <v>9.871345059498339e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>7.043876027046637e-09</v>
+        <v>1.974535298499556e-06</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8517350933034392</v>
+        <v>0.8572568171758366</v>
       </c>
     </row>
     <row r="5">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.847902911326734e-09</v>
+        <v>7.033013450984647e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>2.218573043980729</v>
+        <v>2.213103850403893</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8517350933034392</v>
+        <v>0.8572568171758366</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -632,13 +632,13 @@
         <v>0.001</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.182747596701233e-08</v>
+        <v>8.578384587121235e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.311781585577876e-07</v>
+        <v>3.838004580813958e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.297142295443649e-07</v>
+        <v>1.624558509938367e-08</v>
       </c>
     </row>
     <row r="3">
@@ -648,16 +648,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.296608996310567e-07</v>
+        <v>8.76107205227683e-07</v>
       </c>
       <c r="C3" t="n">
         <v>0.001</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.712129766850978e-07</v>
+        <v>7.005976243590339e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2337334779828701</v>
+        <v>0.2331570933881284</v>
       </c>
     </row>
     <row r="4">
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.230849143776027e-09</v>
+        <v>1.636549362693529e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.675066497788038e-07</v>
+        <v>3.75040287714512e-09</v>
       </c>
       <c r="D4" t="n">
         <v>0.001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2377106570274512</v>
+        <v>0.2392515214723587</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.000501306247514e-07</v>
+        <v>1.533191484881513e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2313199894487528</v>
+        <v>0.2307501695627795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2356636293781805</v>
+        <v>0.2371914917096857</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.000000071827476</v>
+        <v>0.9999991421615413</v>
       </c>
       <c r="D2" t="n">
-        <v>1.000000131178159</v>
+        <v>0.9999999961619954</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00000082971423</v>
+        <v>0.9999999837544149</v>
       </c>
     </row>
     <row r="3">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999997703391004</v>
+        <v>0.9999991238927948</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000000171212977</v>
+        <v>0.9999999929940238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7662665220171299</v>
+        <v>0.7668429066118716</v>
       </c>
     </row>
     <row r="4">
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999967691509</v>
+        <v>0.9999999836345064</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00000036750665</v>
+        <v>0.9999999962495971</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7622893429725488</v>
+        <v>0.7607484785276413</v>
       </c>
     </row>
     <row r="5">
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999998999498694</v>
+        <v>0.9999999846680852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7686800105512472</v>
+        <v>0.7692498304372205</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7643363706218195</v>
+        <v>0.7628085082903143</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v/>
       </c>
       <c r="E2" t="n">
-        <v>8.726090219531561e-09</v>
+        <v>8.641737665572962e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>1.545464634929065e-11</v>
+        <v>1.571886043866166e-09</v>
       </c>
       <c r="G2" t="n">
-        <v>9.643914805693587e-12</v>
+        <v>1.038849272633128e-09</v>
       </c>
     </row>
     <row r="3">
@@ -905,13 +905,13 @@
         <v/>
       </c>
       <c r="E3" t="n">
-        <v>-2.128112170000242e-12</v>
+        <v>-6.039083291940105e-11</v>
       </c>
       <c r="F3" t="n">
-        <v>1.337288199974999e-10</v>
+        <v>1.426354460357299e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>7.228217838084551e-12</v>
+        <v>7.644016581504995e-10</v>
       </c>
     </row>
     <row r="4">
@@ -934,13 +934,13 @@
         <v>0.001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.146242662684104e-11</v>
+        <v>1.341956427971047e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>1.304727746392255e-11</v>
+        <v>1.364058044834568e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>1.366281596571486e-10</v>
+        <v>1.42182330644189e-08</v>
       </c>
     </row>
     <row r="5">
@@ -963,13 +963,13 @@
         <v/>
       </c>
       <c r="E5" t="n">
-        <v>-6.581710120186705e-12</v>
+        <v>-6.628894407890576e-10</v>
       </c>
       <c r="F5" t="n">
-        <v>5.597566098422015e-13</v>
+        <v>5.498739941837663e-11</v>
       </c>
       <c r="G5" t="n">
-        <v>2.35472255055533e-12</v>
+        <v>2.484879310713614e-10</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +992,13 @@
         <v/>
       </c>
       <c r="E6" t="n">
-        <v>-1.208330503837422e-11</v>
+        <v>-1.187599329040472e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>1.134288430603933e-11</v>
+        <v>1.090707115058811e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58926621671895e-12</v>
+        <v>1.481800818731853e-10</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +1021,13 @@
         <v/>
       </c>
       <c r="E7" t="n">
-        <v>-1.306854861681642e-11</v>
+        <v>-1.29516104229539e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.305205208198616e-12</v>
+        <v>-6.410771496789424e-10</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.243256476223588e-13</v>
+        <v>3.279253925303872e-12</v>
       </c>
     </row>
     <row r="8">
@@ -1050,13 +1050,13 @@
         <v>0.001</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.004745901346734e-12</v>
+        <v>-4.013377055928725e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.895276318925951e-12</v>
+        <v>-5.076274639924246e-10</v>
       </c>
       <c r="G8" t="n">
-        <v>6.522354671657967e-13</v>
+        <v>6.399653150345989e-11</v>
       </c>
     </row>
     <row r="9">
@@ -1079,13 +1079,13 @@
         <v/>
       </c>
       <c r="E9" t="n">
-        <v>-1.006687999026715e-11</v>
+        <v>-8.009057933067289e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.73949458790786e-12</v>
+        <v>-5.257085988851518e-10</v>
       </c>
       <c r="G9" t="n">
-        <v>1.20785480885112e-12</v>
+        <v>1.069841545724073e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1108,13 +1108,13 @@
         <v/>
       </c>
       <c r="E10" t="n">
-        <v>-1.276362589418606e-11</v>
+        <v>-1.250759887063155e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.014869037943348e-12</v>
+        <v>-8.256304863162183e-10</v>
       </c>
       <c r="G10" t="n">
-        <v>1.723175335148596e-14</v>
+        <v>1.656723186418905e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1137,13 +1137,13 @@
         <v/>
       </c>
       <c r="E11" t="n">
-        <v>1.058651179267336e-11</v>
+        <v>1.064227859300096e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>4.335487523878537e-12</v>
+        <v>4.526399873981312e-10</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.006956676518742e-12</v>
+        <v>-3.124844514587847e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         <v/>
       </c>
       <c r="E12" t="n">
-        <v>-1.23115719703639e-11</v>
+        <v>-1.0631791366334e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.117716053850966e-12</v>
+        <v>-5.415600802491707e-10</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.132106494878137e-12</v>
+        <v>-7.458861603338213e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1195,13 +1195,13 @@
         <v>0.001</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.264468770641288e-11</v>
+        <v>-1.205013224026331e-09</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.905682519066041e-13</v>
+        <v>-1.37294983188906e-11</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.940162025426599e-12</v>
+        <v>-7.250338221020084e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1.184709091568125e-11</v>
+        <v>-1.216031440211161e-09</v>
       </c>
       <c r="E14" t="n">
         <v/>
       </c>
       <c r="F14" t="n">
-        <v>4.715943585729591e-13</v>
+        <v>-2.185302127329404e-11</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.992452514787043e-12</v>
+        <v>-4.572289951267954e-10</v>
       </c>
     </row>
     <row r="15">
@@ -1250,16 +1250,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1.353917273668773e-11</v>
+        <v>-1.386707643015959e-09</v>
       </c>
       <c r="E15" t="n">
         <v/>
       </c>
       <c r="F15" t="n">
-        <v>3.895064884869892e-13</v>
+        <v>-5.80790425285323e-11</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.627979381822406e-12</v>
+        <v>-9.916829304342753e-10</v>
       </c>
     </row>
     <row r="16">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-1.332945986384284e-11</v>
+        <v>-1.362524264787633e-09</v>
       </c>
       <c r="E16" t="n">
         <v/>
       </c>
       <c r="F16" t="n">
-        <v>-1.355342386441173e-12</v>
+        <v>-2.381728241959801e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>6.998920481855059e-12</v>
+        <v>9.849625178174854e-11</v>
       </c>
     </row>
     <row r="17">
@@ -1308,16 +1308,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.857953526764154e-09</v>
+        <v>8.731021938324944e-07</v>
       </c>
       <c r="E17" t="n">
         <v/>
       </c>
       <c r="F17" t="n">
-        <v>5.958182433463654e-12</v>
+        <v>5.031549108791214e-10</v>
       </c>
       <c r="G17" t="n">
-        <v>1.226133535356801e-11</v>
+        <v>6.114709127771406e-10</v>
       </c>
     </row>
     <row r="18">
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.513100752426707e-11</v>
+        <v>2.725025260226002e-09</v>
       </c>
       <c r="E18" t="n">
         <v/>
       </c>
       <c r="F18" t="n">
-        <v>6.72745784198696e-11</v>
+        <v>7.522518961960364e-09</v>
       </c>
       <c r="G18" t="n">
-        <v>2.824129195851685e-11</v>
+        <v>2.545622285000044e-09</v>
       </c>
     </row>
     <row r="19">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-1.055825783084957e-11</v>
+        <v>-7.814616246460973e-10</v>
       </c>
       <c r="E19" t="n">
         <v>0.001</v>
       </c>
       <c r="F19" t="n">
-        <v>2.016628345819359e-12</v>
+        <v>4.373171321700525e-10</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2337334774117008</v>
+        <v>0.233157106089259</v>
       </c>
     </row>
     <row r="20">
@@ -1395,16 +1395,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1.220688284590168e-11</v>
+        <v>-1.020121398075272e-09</v>
       </c>
       <c r="E20" t="n">
         <v/>
       </c>
       <c r="F20" t="n">
-        <v>-4.936638086872258e-12</v>
+        <v>-5.850390127279153e-10</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.767339177080663e-12</v>
+        <v>-8.552232824431467e-10</v>
       </c>
     </row>
     <row r="21">
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.356428833414193e-11</v>
+        <v>2.319493393601922e-09</v>
       </c>
       <c r="E21" t="n">
         <v>0.001</v>
       </c>
       <c r="F21" t="n">
-        <v>1.664464431585633e-12</v>
+        <v>1.539533263130401e-10</v>
       </c>
       <c r="G21" t="n">
-        <v>1.473331015713303e-11</v>
+        <v>1.528677164356876e-09</v>
       </c>
     </row>
     <row r="22">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1.308187307832301e-11</v>
+        <v>-1.238291546764599e-09</v>
       </c>
       <c r="E22" t="n">
         <v/>
       </c>
       <c r="F22" t="n">
-        <v>-5.535045865420231e-12</v>
+        <v>-5.855288502619328e-10</v>
       </c>
       <c r="G22" t="n">
-        <v>1.352367855829935e-12</v>
+        <v>-3.162072656368193e-10</v>
       </c>
     </row>
     <row r="23">
@@ -1482,16 +1482,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1.206308936907169e-11</v>
+        <v>-1.001578734659124e-09</v>
       </c>
       <c r="E23" t="n">
         <v/>
       </c>
       <c r="F23" t="n">
-        <v>-1.51578588576615e-12</v>
+        <v>-2.362207861187677e-10</v>
       </c>
       <c r="G23" t="n">
-        <v>-9.11550759232787e-12</v>
+        <v>-1.106663304087873e-09</v>
       </c>
     </row>
     <row r="24">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1.17171605740545e-11</v>
+        <v>-1.103461533040981e-09</v>
       </c>
       <c r="E24" t="n">
         <v/>
       </c>
       <c r="F24" t="n">
-        <v>-2.135990661696615e-12</v>
+        <v>-1.321003748246094e-10</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.924847108463744e-12</v>
+        <v>-1.069684738707974e-09</v>
       </c>
     </row>
     <row r="25">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-1.331630237773293e-11</v>
+        <v>-1.277237168500421e-09</v>
       </c>
       <c r="E25" t="n">
         <v>0.001</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.221983358552408e-12</v>
+        <v>-1.806338119189837e-11</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.029497374101376e-11</v>
+        <v>-1.196692738104964e-09</v>
       </c>
     </row>
     <row r="26">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-7.507506002057589e-12</v>
+        <v>-8.39435753469942e-10</v>
       </c>
       <c r="E26" t="n">
-        <v>8.285927393551933e-13</v>
+        <v>-3.299697886362185e-12</v>
       </c>
       <c r="F26" t="n">
         <v/>
       </c>
       <c r="G26" t="n">
-        <v>7.711409848520115e-11</v>
+        <v>5.078387276867497e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-6.159764720431537e-12</v>
+        <v>-7.100582984279928e-10</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.358610033005129e-13</v>
+        <v>-1.323442078789982e-10</v>
       </c>
       <c r="F27" t="n">
         <v/>
       </c>
       <c r="G27" t="n">
-        <v>1.581255391163002e-12</v>
+        <v>-1.6738462563871e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-6.470874539932482e-12</v>
+        <v>-7.477538669636364e-10</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.545708851660103e-12</v>
+        <v>-2.59947487905265e-10</v>
       </c>
       <c r="F28" t="n">
         <v/>
       </c>
       <c r="G28" t="n">
-        <v>3.142027426319749e-10</v>
+        <v>2.07210881930879e-08</v>
       </c>
     </row>
     <row r="29">
@@ -1656,16 +1656,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8.194834417433038e-12</v>
+        <v>7.646712353245158e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.115506343254878e-12</v>
+        <v>-5.00178886442195e-10</v>
       </c>
       <c r="F29" t="n">
         <v/>
       </c>
       <c r="G29" t="n">
-        <v>1.238704234705514e-10</v>
+        <v>8.146005403432506e-09</v>
       </c>
     </row>
     <row r="30">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9.911340078686961e-12</v>
+        <v>1.013817141593131e-09</v>
       </c>
       <c r="E30" t="n">
-        <v>2.182758238540833e-12</v>
+        <v>2.128528854518318e-10</v>
       </c>
       <c r="F30" t="n">
         <v>0.001</v>
       </c>
       <c r="G30" t="n">
-        <v>3.149309899677072e-12</v>
+        <v>2.329606419331658e-10</v>
       </c>
     </row>
     <row r="31">
@@ -1714,16 +1714,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-4.135324220603711e-12</v>
+        <v>-4.092658771091214e-10</v>
       </c>
       <c r="E31" t="n">
-        <v>-5.400796238568728e-12</v>
+        <v>-5.588248940072951e-10</v>
       </c>
       <c r="F31" t="n">
         <v/>
       </c>
       <c r="G31" t="n">
-        <v>2.809434818929645e-10</v>
+        <v>1.931443523368534e-08</v>
       </c>
     </row>
     <row r="32">
@@ -1743,16 +1743,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.361044284136812e-10</v>
+        <v>1.446793726010728e-08</v>
       </c>
       <c r="E32" t="n">
-        <v>4.34036415841896e-12</v>
+        <v>3.349855677523292e-10</v>
       </c>
       <c r="F32" t="n">
         <v/>
       </c>
       <c r="G32" t="n">
-        <v>2.130381946296876e-10</v>
+        <v>1.410386107969743e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.78955348428451e-11</v>
+        <v>2.852861299503332e-09</v>
       </c>
       <c r="E33" t="n">
-        <v>6.65904309729603e-11</v>
+        <v>7.596075338345244e-09</v>
       </c>
       <c r="F33" t="n">
         <v/>
       </c>
       <c r="G33" t="n">
-        <v>2.90815871315953e-10</v>
+        <v>2.01730394716494e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1801,16 +1801,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5.238643872260402e-12</v>
+        <v>6.892179922648861e-10</v>
       </c>
       <c r="E34" t="n">
-        <v>2.136384730469382e-12</v>
+        <v>4.193240418619008e-10</v>
       </c>
       <c r="F34" t="n">
         <v>0.001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.237710629199407</v>
+        <v>0.2392514783420213</v>
       </c>
     </row>
     <row r="35">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.801135561109117e-12</v>
+        <v>4.80160192858192e-10</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.377834930787951e-12</v>
+        <v>-2.303980749739834e-10</v>
       </c>
       <c r="F35" t="n">
         <v/>
       </c>
       <c r="G35" t="n">
-        <v>5.598947840811241e-11</v>
+        <v>3.532870524268979e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1859,16 +1859,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-6.417178565285595e-12</v>
+        <v>-6.442030463061184e-10</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.685455227361958e-12</v>
+        <v>-8.854159275574385e-11</v>
       </c>
       <c r="F36" t="n">
         <v>0.001</v>
       </c>
       <c r="G36" t="n">
-        <v>4.003324546198943e-11</v>
+        <v>2.4419745305257e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1888,16 +1888,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-3.75151188405401e-12</v>
+        <v>-3.037588983350803e-10</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.746830201540927e-12</v>
+        <v>-8.050867232058524e-11</v>
       </c>
       <c r="F37" t="n">
         <v/>
       </c>
       <c r="G37" t="n">
-        <v>-1.089301807709927e-13</v>
+        <v>-2.160689054803325e-10</v>
       </c>
     </row>
     <row r="38">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-5.631283108437893e-12</v>
+        <v>-6.124159753753544e-10</v>
       </c>
       <c r="E38" t="n">
-        <v>6.111901281807404e-14</v>
+        <v>-5.622343860346513e-10</v>
       </c>
       <c r="F38" t="n">
-        <v>1.167780183260986e-10</v>
+        <v>7.361295014414699e-09</v>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1946,13 +1946,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-6.150031119227631e-12</v>
+        <v>-6.687951565510892e-10</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.881034363144e-12</v>
+        <v>-1.006210907862035e-09</v>
       </c>
       <c r="F39" t="n">
-        <v>2.486417181118933e-10</v>
+        <v>1.511083200562494e-08</v>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1975,13 +1975,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.067128974313123e-13</v>
+        <v>-3.223209985784286e-11</v>
       </c>
       <c r="E40" t="n">
-        <v>1.410595278004329e-11</v>
+        <v>1.527822557002831e-09</v>
       </c>
       <c r="F40" t="n">
-        <v>2.664288386501229e-12</v>
+        <v>1.568081057487282e-10</v>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1.677350881588113e-13</v>
+        <v>-1.027755583893186e-11</v>
       </c>
       <c r="E41" t="n">
-        <v>-9.761220142873531e-12</v>
+        <v>-1.191298439476066e-09</v>
       </c>
       <c r="F41" t="n">
-        <v>7.338415982373843e-11</v>
+        <v>4.401284402739772e-09</v>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2033,13 +2033,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-1.013810497631085e-13</v>
+        <v>-1.553391956397661e-11</v>
       </c>
       <c r="E42" t="n">
-        <v>-8.183187331110588e-12</v>
+        <v>-1.077987319569966e-09</v>
       </c>
       <c r="F42" t="n">
-        <v>3.279880237280741e-10</v>
+        <v>2.117691491368347e-08</v>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-4.591599587843664e-13</v>
+        <v>-1.123717379950717e-11</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.500050927127907e-12</v>
+        <v>-9.744376820817634e-10</v>
       </c>
       <c r="F43" t="n">
-        <v>1.499546017654861e-12</v>
+        <v>3.416147476553469e-12</v>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1.238515354994881e-12</v>
+        <v>-1.239070526975528e-10</v>
       </c>
       <c r="E44" t="n">
-        <v>-8.498521848351511e-12</v>
+        <v>-1.103340225149276e-09</v>
       </c>
       <c r="F44" t="n">
-        <v>4.551347158300123e-11</v>
+        <v>2.556549242255614e-09</v>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.453666605388866e-13</v>
+        <v>2.546480673964905e-11</v>
       </c>
       <c r="E45" t="n">
-        <v>4.203722336791239e-12</v>
+        <v>-2.523954097028532e-10</v>
       </c>
       <c r="F45" t="n">
-        <v>7.13407273907787e-11</v>
+        <v>4.349930487942298e-09</v>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -2149,13 +2149,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.523422776731173e-13</v>
+        <v>4.346922094645803e-11</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.065672839237914e-12</v>
+        <v>-5.532138064137541e-10</v>
       </c>
       <c r="F46" t="n">
-        <v>3.117050061170284e-13</v>
+        <v>-1.595243384809146e-10</v>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -2178,13 +2178,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.255908401086748e-10</v>
+        <v>1.295968730580179e-08</v>
       </c>
       <c r="E47" t="n">
-        <v>2.554577942045487e-11</v>
+        <v>2.254015927847025e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>2.491863934178297e-10</v>
+        <v>1.567110148075361e-08</v>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.657640351243549e-12</v>
+        <v>5.499025194344608e-10</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2313204585162844</v>
+        <v>0.2307501713557361</v>
       </c>
       <c r="F48" t="n">
-        <v>2.147529838525925e-10</v>
+        <v>1.387038996154108e-08</v>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5.410605752195759e-12</v>
+        <v>6.2935605109449e-10</v>
       </c>
       <c r="E49" t="n">
-        <v>7.703749342931491e-12</v>
+        <v>1.752487860327088e-10</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2356638257012487</v>
+        <v>0.2371914649215917</v>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2269,7 +2269,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1590365</v>
+        <v>0.0075015</v>
       </c>
     </row>
   </sheetData>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.011484586519129e-08</v>
+        <v>3.223869379218018e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>3.212056125042771e-08</v>
+        <v>1.91920451826095e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72080862589569e-10</v>
+        <v>1.118667332369326e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>0.665572712679147</v>
+        <v>0.6639954888086967</v>
       </c>
     </row>
   </sheetData>
